--- a/artifacts/InPreSS/assets/results/Defects4J/Mockito.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Mockito.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Downloads/FinalD4JResults/All-297-16-4/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8CB057-940B-FC42-AEF7-C3D2559D9248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D937049-7F6D-094D-A12F-616DF6254F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="17260" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stats" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
   <si>
     <t>Bug ID</t>
   </si>
@@ -62,33 +62,6 @@
     <t>%New InPreSS Reduction</t>
   </si>
   <si>
-    <t>AssertionFailedError</t>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>ComparisonFailure</t>
-  </si>
-  <si>
-    <t>MockitoException</t>
-  </si>
-  <si>
-    <t>NotSerializableException</t>
-  </si>
-  <si>
-    <t>NullPointerException</t>
-  </si>
-  <si>
-    <t>InstantationException</t>
-  </si>
-  <si>
-    <t>RuntimeException</t>
-  </si>
-  <si>
-    <t>ArrayIndexOutOfBoundsException</t>
-  </si>
-  <si>
     <t>%Old Reduction</t>
   </si>
   <si>
@@ -324,9 +297,6 @@
   </si>
   <si>
     <t>#New Chg</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>Old Match Avg.</t>
@@ -372,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -387,18 +357,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Times Roman"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -423,12 +382,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -759,11 +716,10 @@
     <col min="1" max="4" width="8.83203125" style="2"/>
     <col min="6" max="10" width="8.83203125" style="2"/>
     <col min="12" max="13" width="8.83203125" style="2"/>
-    <col min="14" max="14" width="14.5" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="2"/>
+    <col min="16" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" customFormat="1">
+    <row r="1" spans="1:15" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -774,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -792,10 +748,10 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -803,17 +759,14 @@
       <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>97</v>
+      <c r="N1" t="s">
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -827,7 +780,7 @@
         <v>99.867109634551497</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -845,7 +798,7 @@
         <v>99.7222222222222</v>
       </c>
       <c r="K2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -853,17 +806,14 @@
       <c r="M2" s="1">
         <v>75</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>9</v>
+      <c r="N2" t="s">
+        <v>34</v>
       </c>
       <c r="O2" t="s">
-        <v>43</v>
-      </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -877,7 +827,7 @@
         <v>93.511450381679296</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>20</v>
@@ -895,7 +845,7 @@
         <v>94.944751381215397</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1">
         <v>21</v>
@@ -903,17 +853,14 @@
       <c r="M3" s="1">
         <v>88.524590163934405</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>9</v>
+      <c r="N3" t="s">
+        <v>36</v>
       </c>
       <c r="O3" t="s">
-        <v>45</v>
-      </c>
-      <c r="P3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -927,7 +874,7 @@
         <v>96.090326929558401</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>18</v>
@@ -945,7 +892,7 @@
         <v>94.446617129448498</v>
       </c>
       <c r="K4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
@@ -953,17 +900,14 @@
       <c r="M4" s="1">
         <v>97.183098591549296</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>10</v>
+      <c r="N4" t="s">
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -977,7 +921,7 @@
         <v>87.600567912919999</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
@@ -995,7 +939,7 @@
         <v>94.652081434214494</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L5" s="1">
         <v>19</v>
@@ -1003,17 +947,14 @@
       <c r="M5" s="1">
         <v>89.204545454545396</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>9</v>
+      <c r="N5" t="s">
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1027,7 +968,7 @@
         <v>67.2805609529441</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1">
         <v>81</v>
@@ -1045,7 +986,7 @@
         <v>91.530126849894202</v>
       </c>
       <c r="K6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L6" s="1">
         <v>81</v>
@@ -1053,17 +994,14 @@
       <c r="M6" s="1">
         <v>87.363494539781598</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>11</v>
+      <c r="N6" t="s">
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1077,7 +1015,7 @@
         <v>98.710115410726402</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1095,7 +1033,7 @@
         <v>98.619957537154903</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L7" s="1">
         <v>3</v>
@@ -1103,17 +1041,14 @@
       <c r="M7" s="1">
         <v>88.461538461538396</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>12</v>
+      <c r="N7" t="s">
+        <v>44</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -1127,7 +1062,7 @@
         <v>96.073825503355707</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1">
         <v>18</v>
@@ -1145,7 +1080,7 @@
         <v>94.470404984423595</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
@@ -1153,17 +1088,14 @@
       <c r="M8" s="1">
         <v>97.183098591549296</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>12</v>
+      <c r="N8" t="s">
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
-      </c>
-      <c r="P8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -1177,7 +1109,7 @@
         <v>95.739644970414204</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1195,7 +1127,7 @@
         <v>88.766692851531801</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1203,17 +1135,14 @@
       <c r="M9" s="1">
         <v>97.902097902097907</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>12</v>
+      <c r="N9" t="s">
+        <v>48</v>
       </c>
       <c r="O9" t="s">
-        <v>57</v>
-      </c>
-      <c r="P9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -1227,7 +1156,7 @@
         <v>94.911242603550207</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -1245,7 +1174,7 @@
         <v>87.666928515318105</v>
       </c>
       <c r="K10" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
@@ -1253,17 +1182,14 @@
       <c r="M10" s="1">
         <v>97.452229299362997</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>9</v>
+      <c r="N10" t="s">
+        <v>50</v>
       </c>
       <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>19</v>
       </c>
@@ -1277,7 +1203,7 @@
         <v>77.266028002947607</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1">
         <v>118</v>
@@ -1295,7 +1221,7 @@
         <v>72.849591542527605</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L11" s="1">
         <v>78</v>
@@ -1303,17 +1229,14 @@
       <c r="M11" s="1">
         <v>86.194690265486699</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>9</v>
+      <c r="N11" t="s">
+        <v>52</v>
       </c>
       <c r="O11" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>20</v>
       </c>
@@ -1327,7 +1250,7 @@
         <v>90.944026733500394</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F12" s="1">
         <v>187</v>
@@ -1345,7 +1268,7 @@
         <v>68.808091853471794</v>
       </c>
       <c r="K12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="L12" s="1">
         <v>145</v>
@@ -1353,17 +1276,14 @@
       <c r="M12" s="1">
         <v>87.291849255039395</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>11</v>
+      <c r="N12" t="s">
+        <v>54</v>
       </c>
       <c r="O12" t="s">
-        <v>63</v>
-      </c>
-      <c r="P12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>21</v>
       </c>
@@ -1377,7 +1297,7 @@
         <v>72.327683615819197</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1">
         <v>64</v>
@@ -1395,7 +1315,7 @@
         <v>92.232055063913407</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L13" s="1">
         <v>64</v>
@@ -1403,17 +1323,14 @@
       <c r="M13" s="1">
         <v>86.497890295358602</v>
       </c>
-      <c r="N13" s="3" t="s">
-        <v>15</v>
+      <c r="N13" t="s">
+        <v>56</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>22</v>
       </c>
@@ -1427,7 +1344,7 @@
         <v>99.873896595207995</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1445,7 +1362,7 @@
         <v>99.550417469492601</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1453,17 +1370,14 @@
       <c r="M14" s="1">
         <v>85.714285714285694</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>16</v>
+      <c r="N14" t="s">
+        <v>58</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="P14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>23</v>
       </c>
@@ -1477,7 +1391,7 @@
         <v>98.772267693789104</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1495,7 +1409,7 @@
         <v>98.086303939962406</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1503,17 +1417,14 @@
       <c r="M15" s="1">
         <v>98.039215686274503</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>13</v>
+      <c r="N15" t="s">
+        <v>60</v>
       </c>
       <c r="O15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>24</v>
       </c>
@@ -1527,7 +1438,7 @@
         <v>98.975269845607301</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1">
         <v>12</v>
@@ -1545,7 +1456,7 @@
         <v>99.040361275755004</v>
       </c>
       <c r="K16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L16" s="1">
         <v>6</v>
@@ -1553,17 +1464,14 @@
       <c r="M16" s="1">
         <v>91.176470588235205</v>
       </c>
-      <c r="N16" s="3" t="s">
-        <v>9</v>
+      <c r="N16" t="s">
+        <v>62</v>
       </c>
       <c r="O16" t="s">
-        <v>71</v>
-      </c>
-      <c r="P16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>27</v>
       </c>
@@ -1577,7 +1485,7 @@
         <v>53.034521158129103</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1">
         <v>47</v>
@@ -1595,7 +1503,7 @@
         <v>92.3794297895017</v>
       </c>
       <c r="K17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L17" s="1">
         <v>36</v>
@@ -1603,17 +1511,14 @@
       <c r="M17" s="1">
         <v>87.412587412587399</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>9</v>
+      <c r="N17" t="s">
+        <v>64</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>28</v>
       </c>
@@ -1628,7 +1533,7 @@
         <v>95.159817351598178</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1">
         <v>14</v>
@@ -1648,7 +1553,7 @@
         <v>83.859649122807028</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1">
         <v>11</v>
@@ -1657,17 +1562,14 @@
         <f>(I18-L18)/I18*100</f>
         <v>95.217391304347828</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>9</v>
+      <c r="N18" t="s">
+        <v>66</v>
       </c>
       <c r="O18" t="s">
-        <v>75</v>
-      </c>
-      <c r="P18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>30</v>
       </c>
@@ -1681,7 +1583,7 @@
         <v>96.593886462882097</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1">
         <v>11</v>
@@ -1699,7 +1601,7 @@
         <v>97.933513027852598</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="L19" s="1">
         <v>8</v>
@@ -1707,17 +1609,14 @@
       <c r="M19" s="1">
         <v>65.2173913043478</v>
       </c>
-      <c r="N19" s="3" t="s">
-        <v>9</v>
+      <c r="N19" t="s">
+        <v>68</v>
       </c>
       <c r="O19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>31</v>
       </c>
@@ -1731,7 +1630,7 @@
         <v>81.866509155345497</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1">
         <v>48</v>
@@ -1749,7 +1648,7 @@
         <v>82.505729564552993</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L20" s="1">
         <v>22</v>
@@ -1757,17 +1656,14 @@
       <c r="M20" s="1">
         <v>90.393013100436605</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>11</v>
+      <c r="N20" t="s">
+        <v>70</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>32</v>
       </c>
@@ -1781,7 +1677,7 @@
         <v>86.343885785226504</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F21" s="1">
         <v>28</v>
@@ -1799,7 +1695,7 @@
         <v>85.758609990691895</v>
       </c>
       <c r="K21" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="L21" s="1">
         <v>20</v>
@@ -1807,17 +1703,14 @@
       <c r="M21" s="1">
         <v>95.642701525054406</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>9</v>
+      <c r="N21" t="s">
+        <v>72</v>
       </c>
       <c r="O21" t="s">
-        <v>81</v>
-      </c>
-      <c r="P21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>33</v>
       </c>
@@ -1831,7 +1724,7 @@
         <v>94.036539124439798</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F22" s="1">
         <v>30</v>
@@ -1849,7 +1742,7 @@
         <v>96.197241955704101</v>
       </c>
       <c r="K22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L22" s="1">
         <v>8</v>
@@ -1857,17 +1750,14 @@
       <c r="M22" s="1">
         <v>91.208791208791197</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>9</v>
+      <c r="N22" t="s">
+        <v>74</v>
       </c>
       <c r="O22" t="s">
-        <v>83</v>
-      </c>
-      <c r="P22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>34</v>
       </c>
@@ -1881,7 +1771,7 @@
         <v>81.866509155345497</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="F23" s="1">
         <v>48</v>
@@ -1899,7 +1789,7 @@
         <v>82.505729564552993</v>
       </c>
       <c r="K23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="L23" s="1">
         <v>22</v>
@@ -1907,17 +1797,14 @@
       <c r="M23" s="1">
         <v>90.393013100436605</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>17</v>
+      <c r="N23" t="s">
+        <v>76</v>
       </c>
       <c r="O23" t="s">
-        <v>85</v>
-      </c>
-      <c r="P23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>35</v>
       </c>
@@ -1931,7 +1818,7 @@
         <v>98.334010564810995</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
@@ -1949,7 +1836,7 @@
         <v>97.514450867052005</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -1957,17 +1844,14 @@
       <c r="M24" s="1">
         <v>93.023255813953398</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>14</v>
+      <c r="N24" t="s">
+        <v>78</v>
       </c>
       <c r="O24" t="s">
-        <v>87</v>
-      </c>
-      <c r="P24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>36</v>
       </c>
@@ -1981,7 +1865,7 @@
         <v>98.338368580060404</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -1999,7 +1883,7 @@
         <v>98.039215686274503</v>
       </c>
       <c r="K25" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -2007,17 +1891,14 @@
       <c r="M25" s="1">
         <v>96</v>
       </c>
-      <c r="N25" s="3" t="s">
-        <v>14</v>
+      <c r="N25" t="s">
+        <v>80</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>37</v>
       </c>
@@ -2031,7 +1912,7 @@
         <v>99.848714069591495</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -2049,7 +1930,7 @@
         <v>99.686274509803894</v>
       </c>
       <c r="K26" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -2057,17 +1938,14 @@
       <c r="M26" s="1">
         <v>75</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>9</v>
+      <c r="N26" t="s">
+        <v>82</v>
       </c>
       <c r="O26" t="s">
-        <v>91</v>
-      </c>
-      <c r="P26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>38</v>
       </c>
@@ -2081,7 +1959,7 @@
         <v>98.994974874371806</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -2099,7 +1977,7 @@
         <v>98.429319371727701</v>
       </c>
       <c r="K27" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -2107,21 +1985,12 @@
       <c r="M27" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>14</v>
+      <c r="N27" t="s">
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>93</v>
-      </c>
-      <c r="P27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="N29" s="4"/>
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M27">
@@ -2135,7 +2004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4008468C-266B-0641-A6E2-B97D6395B8F7}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -2146,52 +2015,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="Q1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>110</v>
-      </c>
-      <c r="K1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L1" t="s">
-        <v>105</v>
-      </c>
-      <c r="M1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">

--- a/artifacts/InPreSS/assets/results/Defects4J/Mockito.xlsx
+++ b/artifacts/InPreSS/assets/results/Defects4J/Mockito.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sahar1/Documents/Github/resess.github.io/artifacts/InPreSS/assets/results/Defects4J/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D937049-7F6D-094D-A12F-616DF6254F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B689DD7D-80C3-8B40-B518-0DCCFF1A7643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15420" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Bug ID</t>
   </si>
@@ -77,220 +77,10 @@
     <t># New unmathched block</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>DSlice Time (Min)</t>
   </si>
   <si>
     <t>InPreSS Time (Min)</t>
-  </si>
-  <si>
-    <t>0.0012833333333333334</t>
-  </si>
-  <si>
-    <t>8.333333333333333E-5</t>
-  </si>
-  <si>
-    <t>0.13851666666666668</t>
-  </si>
-  <si>
-    <t>0.044033333333333334</t>
-  </si>
-  <si>
-    <t>0.2638</t>
-  </si>
-  <si>
-    <t>0.009483333333333333</t>
-  </si>
-  <si>
-    <t>0.3612666666666666</t>
-  </si>
-  <si>
-    <t>0.040016666666666666</t>
-  </si>
-  <si>
-    <t>0.18241666666666667</t>
-  </si>
-  <si>
-    <t>0.0020833333333333333</t>
-  </si>
-  <si>
-    <t>0.0064333333333333334</t>
-  </si>
-  <si>
-    <t>0.0010833333333333333</t>
-  </si>
-  <si>
-    <t>0.2568166666666667</t>
-  </si>
-  <si>
-    <t>0.0105</t>
-  </si>
-  <si>
-    <t>0.18016666666666667</t>
-  </si>
-  <si>
-    <t>0.00285</t>
-  </si>
-  <si>
-    <t>0.0011333333333333334</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.08686666666666666</t>
-  </si>
-  <si>
-    <t>0.011566666666666666</t>
-  </si>
-  <si>
-    <t>2.904166666666667</t>
-  </si>
-  <si>
-    <t>0.3045833333333333</t>
-  </si>
-  <si>
-    <t>0.004633333333333334</t>
-  </si>
-  <si>
-    <t>1.6666666666666667E-5</t>
-  </si>
-  <si>
-    <t>0.009899999999999999</t>
-  </si>
-  <si>
-    <t>0.006416666666666667</t>
-  </si>
-  <si>
-    <t>0.013683333333333332</t>
-  </si>
-  <si>
-    <t>8.833333333333333E-4</t>
-  </si>
-  <si>
-    <t>1.1666666666666667E-4</t>
-  </si>
-  <si>
-    <t>0.0010666666666666667</t>
-  </si>
-  <si>
-    <t>0.03785</t>
-  </si>
-  <si>
-    <t>0.020566666666666667</t>
-  </si>
-  <si>
-    <t>1.71715</t>
-  </si>
-  <si>
-    <t>0.16440000000000002</t>
-  </si>
-  <si>
-    <t>1.7505666666666668</t>
-  </si>
-  <si>
-    <t>0.08875000000000001</t>
-  </si>
-  <si>
-    <t>1.1832500000000001</t>
-  </si>
-  <si>
-    <t>0.01545</t>
-  </si>
-  <si>
-    <t>0.0081</t>
-  </si>
-  <si>
-    <t>0.002766666666666667</t>
-  </si>
-  <si>
-    <t>0.12336666666666667</t>
-  </si>
-  <si>
-    <t>0.07868333333333334</t>
-  </si>
-  <si>
-    <t>0.10616666666666667</t>
-  </si>
-  <si>
-    <t>0.004066666666666666</t>
-  </si>
-  <si>
-    <t>0.018500000000000003</t>
-  </si>
-  <si>
-    <t>0.010233333333333334</t>
-  </si>
-  <si>
-    <t>0.6145833333333334</t>
-  </si>
-  <si>
-    <t>0.0101</t>
-  </si>
-  <si>
-    <t>0.018633333333333335</t>
-  </si>
-  <si>
-    <t>0.011316666666666668</t>
-  </si>
-  <si>
-    <t>0.0017833333333333334</t>
-  </si>
-  <si>
-    <t>0.0016833333333333333</t>
   </si>
   <si>
     <t>#Old Chg</t>
@@ -382,10 +172,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -697,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -707,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E27" sqref="A1:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -733,7 +525,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -751,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="K1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>7</v>
@@ -760,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="O1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -779,8 +571,8 @@
       <c r="D2" s="1">
         <v>99.867109634551497</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <v>2</v>
@@ -797,8 +589,8 @@
       <c r="J2" s="1">
         <v>99.7222222222222</v>
       </c>
-      <c r="K2" t="s">
-        <v>19</v>
+      <c r="K2" s="3">
+        <v>0</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -806,11 +598,11 @@
       <c r="M2" s="1">
         <v>75</v>
       </c>
-      <c r="N2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
+      <c r="N2" s="3">
+        <v>1.2833333333333299E-3</v>
+      </c>
+      <c r="O2" s="4">
+        <v>8.3333333333333303E-5</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -826,8 +618,8 @@
       <c r="D3" s="1">
         <v>93.511450381679296</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
+      <c r="E3" s="3">
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>20</v>
@@ -844,20 +636,20 @@
       <c r="J3" s="1">
         <v>94.944751381215397</v>
       </c>
-      <c r="K3" t="s">
-        <v>23</v>
+      <c r="K3" s="3">
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <v>21</v>
       </c>
       <c r="M3" s="1">
-        <v>88.524590163934405</v>
-      </c>
-      <c r="N3" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" t="s">
-        <v>37</v>
+        <v>87.524590163934405</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0.13851666666666601</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.4033333333333299E-2</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -873,8 +665,8 @@
       <c r="D4" s="1">
         <v>96.090326929558401</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
+      <c r="E4" s="3">
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>18</v>
@@ -891,20 +683,20 @@
       <c r="J4" s="1">
         <v>94.446617129448498</v>
       </c>
-      <c r="K4" t="s">
-        <v>15</v>
+      <c r="K4" s="3">
+        <v>2</v>
       </c>
       <c r="L4" s="1">
         <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>97.183098591549296</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
+        <v>96.183098591549296</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.26379999999999998</v>
+      </c>
+      <c r="O4" s="3">
+        <v>9.4833333333333297E-3</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -920,8 +712,8 @@
       <c r="D5" s="1">
         <v>87.600567912919999</v>
       </c>
-      <c r="E5" t="s">
-        <v>17</v>
+      <c r="E5" s="3">
+        <v>6</v>
       </c>
       <c r="F5" s="1">
         <v>36</v>
@@ -938,20 +730,20 @@
       <c r="J5" s="1">
         <v>94.652081434214494</v>
       </c>
-      <c r="K5" t="s">
-        <v>15</v>
+      <c r="K5" s="3">
+        <v>2</v>
       </c>
       <c r="L5" s="1">
         <v>19</v>
       </c>
       <c r="M5" s="1">
-        <v>89.204545454545396</v>
-      </c>
-      <c r="N5" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" t="s">
-        <v>41</v>
+        <v>88.204545454545396</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0.36126666666666601</v>
+      </c>
+      <c r="O5" s="3">
+        <v>4.0016666666666603E-2</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -967,8 +759,8 @@
       <c r="D6" s="1">
         <v>67.2805609529441</v>
       </c>
-      <c r="E6" t="s">
-        <v>15</v>
+      <c r="E6" s="3">
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>81</v>
@@ -985,20 +777,20 @@
       <c r="J6" s="1">
         <v>91.530126849894202</v>
       </c>
-      <c r="K6" t="s">
-        <v>15</v>
+      <c r="K6" s="3">
+        <v>2</v>
       </c>
       <c r="L6" s="1">
         <v>81</v>
       </c>
       <c r="M6" s="1">
-        <v>87.363494539781598</v>
-      </c>
-      <c r="N6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
+        <v>86.363494539781598</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.18241666666666601</v>
+      </c>
+      <c r="O6" s="3">
+        <v>2.0833333333333298E-3</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1014,8 +806,8 @@
       <c r="D7" s="1">
         <v>98.710115410726402</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
+      <c r="E7" s="3">
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -1032,8 +824,8 @@
       <c r="J7" s="1">
         <v>98.619957537154903</v>
       </c>
-      <c r="K7" t="s">
-        <v>19</v>
+      <c r="K7" s="3">
+        <v>0</v>
       </c>
       <c r="L7" s="1">
         <v>3</v>
@@ -1041,11 +833,11 @@
       <c r="M7" s="1">
         <v>88.461538461538396</v>
       </c>
-      <c r="N7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
+      <c r="N7" s="3">
+        <v>6.43333333333333E-3</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1.08333333333333E-3</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -1061,8 +853,8 @@
       <c r="D8" s="1">
         <v>96.073825503355707</v>
       </c>
-      <c r="E8" t="s">
-        <v>16</v>
+      <c r="E8" s="3">
+        <v>7</v>
       </c>
       <c r="F8" s="1">
         <v>18</v>
@@ -1079,20 +871,20 @@
       <c r="J8" s="1">
         <v>94.470404984423595</v>
       </c>
-      <c r="K8" t="s">
-        <v>15</v>
+      <c r="K8" s="3">
+        <v>2</v>
       </c>
       <c r="L8" s="1">
         <v>4</v>
       </c>
       <c r="M8" s="1">
-        <v>97.183098591549296</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
+        <v>96.183098591549296</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.25681666666666603</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1.0500000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -1108,8 +900,8 @@
       <c r="D9" s="1">
         <v>95.739644970414204</v>
       </c>
-      <c r="E9" t="s">
-        <v>15</v>
+      <c r="E9" s="3">
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>3</v>
@@ -1126,8 +918,8 @@
       <c r="J9" s="1">
         <v>88.766692851531801</v>
       </c>
-      <c r="K9" t="s">
-        <v>15</v>
+      <c r="K9" s="3">
+        <v>2</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1135,11 +927,11 @@
       <c r="M9" s="1">
         <v>97.902097902097907</v>
       </c>
-      <c r="N9" t="s">
-        <v>48</v>
-      </c>
-      <c r="O9" t="s">
-        <v>49</v>
+      <c r="N9" s="3">
+        <v>0.180166666666666</v>
+      </c>
+      <c r="O9" s="3">
+        <v>2.8500000000000001E-3</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1155,8 +947,8 @@
       <c r="D10" s="1">
         <v>94.911242603550207</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
+      <c r="E10" s="3">
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
@@ -1173,8 +965,8 @@
       <c r="J10" s="1">
         <v>87.666928515318105</v>
       </c>
-      <c r="K10" t="s">
-        <v>19</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="1">
         <v>4</v>
@@ -1182,11 +974,11 @@
       <c r="M10" s="1">
         <v>97.452229299362997</v>
       </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>51</v>
+      <c r="N10" s="3">
+        <v>1.1333333333333299E-3</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1202,8 +994,8 @@
       <c r="D11" s="1">
         <v>77.266028002947607</v>
       </c>
-      <c r="E11" t="s">
-        <v>17</v>
+      <c r="E11" s="3">
+        <v>6</v>
       </c>
       <c r="F11" s="1">
         <v>118</v>
@@ -1220,8 +1012,8 @@
       <c r="J11" s="1">
         <v>72.849591542527605</v>
       </c>
-      <c r="K11" t="s">
-        <v>28</v>
+      <c r="K11" s="3">
+        <v>4</v>
       </c>
       <c r="L11" s="1">
         <v>78</v>
@@ -1229,11 +1021,11 @@
       <c r="M11" s="1">
         <v>86.194690265486699</v>
       </c>
-      <c r="N11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
+      <c r="N11" s="3">
+        <v>8.6866666666666606E-2</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1.15666666666666E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1249,8 +1041,8 @@
       <c r="D12" s="1">
         <v>90.944026733500394</v>
       </c>
-      <c r="E12" t="s">
-        <v>18</v>
+      <c r="E12" s="3">
+        <v>15</v>
       </c>
       <c r="F12" s="1">
         <v>187</v>
@@ -1267,8 +1059,8 @@
       <c r="J12" s="1">
         <v>68.808091853471794</v>
       </c>
-      <c r="K12" t="s">
-        <v>29</v>
+      <c r="K12" s="3">
+        <v>16</v>
       </c>
       <c r="L12" s="1">
         <v>145</v>
@@ -1276,11 +1068,11 @@
       <c r="M12" s="1">
         <v>87.291849255039395</v>
       </c>
-      <c r="N12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O12" t="s">
-        <v>55</v>
+      <c r="N12" s="3">
+        <v>2.9041666666666601</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.30458333333333298</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1296,8 +1088,8 @@
       <c r="D13" s="1">
         <v>72.327683615819197</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
+      <c r="E13" s="3">
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>64</v>
@@ -1314,8 +1106,8 @@
       <c r="J13" s="1">
         <v>92.232055063913407</v>
       </c>
-      <c r="K13" t="s">
-        <v>14</v>
+      <c r="K13" s="3">
+        <v>1</v>
       </c>
       <c r="L13" s="1">
         <v>64</v>
@@ -1323,11 +1115,11 @@
       <c r="M13" s="1">
         <v>86.497890295358602</v>
       </c>
-      <c r="N13" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" t="s">
-        <v>57</v>
+      <c r="N13" s="3">
+        <v>4.6333333333333296E-3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>1.66666666666666E-5</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1343,8 +1135,8 @@
       <c r="D14" s="1">
         <v>99.873896595207995</v>
       </c>
-      <c r="E14" t="s">
-        <v>19</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -1361,8 +1153,8 @@
       <c r="J14" s="1">
         <v>99.550417469492601</v>
       </c>
-      <c r="K14" t="s">
-        <v>19</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1370,11 +1162,11 @@
       <c r="M14" s="1">
         <v>85.714285714285694</v>
       </c>
-      <c r="N14" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" t="s">
-        <v>59</v>
+      <c r="N14" s="3">
+        <v>9.8999999999999904E-3</v>
+      </c>
+      <c r="O14" s="3">
+        <v>6.4166666666666599E-3</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1390,8 +1182,8 @@
       <c r="D15" s="1">
         <v>98.772267693789104</v>
       </c>
-      <c r="E15" t="s">
-        <v>14</v>
+      <c r="E15" s="3">
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -1408,20 +1200,20 @@
       <c r="J15" s="1">
         <v>98.086303939962406</v>
       </c>
-      <c r="K15" t="s">
-        <v>14</v>
+      <c r="K15" s="3">
+        <v>1</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
       </c>
       <c r="M15" s="1">
-        <v>98.039215686274503</v>
-      </c>
-      <c r="N15" t="s">
-        <v>60</v>
-      </c>
-      <c r="O15" t="s">
-        <v>61</v>
+        <v>96.039215686274503</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1.3683333333333301E-2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>8.8333333333333298E-4</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1437,8 +1229,8 @@
       <c r="D16" s="1">
         <v>98.975269845607301</v>
       </c>
-      <c r="E16" t="s">
-        <v>19</v>
+      <c r="E16" s="3">
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>12</v>
@@ -1455,20 +1247,20 @@
       <c r="J16" s="1">
         <v>99.040361275755004</v>
       </c>
-      <c r="K16" t="s">
-        <v>19</v>
+      <c r="K16" s="3">
+        <v>0</v>
       </c>
       <c r="L16" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M16" s="1">
-        <v>91.176470588235205</v>
-      </c>
-      <c r="N16" t="s">
-        <v>62</v>
-      </c>
-      <c r="O16" t="s">
-        <v>63</v>
+        <v>89.176470588235205</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1.16666666666666E-4</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1.06666666666666E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1484,8 +1276,8 @@
       <c r="D17" s="1">
         <v>53.034521158129103</v>
       </c>
-      <c r="E17" t="s">
-        <v>20</v>
+      <c r="E17" s="3">
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>47</v>
@@ -1502,20 +1294,20 @@
       <c r="J17" s="1">
         <v>92.3794297895017</v>
       </c>
-      <c r="K17" t="s">
-        <v>15</v>
+      <c r="K17" s="3">
+        <v>2</v>
       </c>
       <c r="L17" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M17" s="1">
-        <v>87.412587412587399</v>
-      </c>
-      <c r="N17" t="s">
-        <v>64</v>
-      </c>
-      <c r="O17" t="s">
-        <v>65</v>
+        <v>84.412587412587399</v>
+      </c>
+      <c r="N17" s="3">
+        <v>3.7850000000000002E-2</v>
+      </c>
+      <c r="O17" s="3">
+        <v>2.0566666666666601E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1532,8 +1324,8 @@
         <f t="shared" ref="D18" si="0">(B18-C18)/B18*100</f>
         <v>95.159817351598178</v>
       </c>
-      <c r="E18" t="s">
-        <v>21</v>
+      <c r="E18" s="3">
+        <v>11</v>
       </c>
       <c r="F18" s="1">
         <v>14</v>
@@ -1552,8 +1344,8 @@
         <f>(H18-I18)/H18*100</f>
         <v>83.859649122807028</v>
       </c>
-      <c r="K18" t="s">
-        <v>30</v>
+      <c r="K18" s="3">
+        <v>12</v>
       </c>
       <c r="L18" s="1">
         <v>11</v>
@@ -1562,11 +1354,11 @@
         <f>(I18-L18)/I18*100</f>
         <v>95.217391304347828</v>
       </c>
-      <c r="N18" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" t="s">
-        <v>67</v>
+      <c r="N18" s="3">
+        <v>1.71715</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0.16439999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1582,8 +1374,8 @@
       <c r="D19" s="1">
         <v>96.593886462882097</v>
       </c>
-      <c r="E19" t="s">
-        <v>22</v>
+      <c r="E19" s="3">
+        <v>28</v>
       </c>
       <c r="F19" s="1">
         <v>11</v>
@@ -1600,8 +1392,8 @@
       <c r="J19" s="1">
         <v>97.933513027852598</v>
       </c>
-      <c r="K19" t="s">
-        <v>31</v>
+      <c r="K19" s="3">
+        <v>20</v>
       </c>
       <c r="L19" s="1">
         <v>8</v>
@@ -1609,11 +1401,11 @@
       <c r="M19" s="1">
         <v>65.2173913043478</v>
       </c>
-      <c r="N19" t="s">
-        <v>68</v>
-      </c>
-      <c r="O19" t="s">
-        <v>69</v>
+      <c r="N19" s="3">
+        <v>1.7505666666666599</v>
+      </c>
+      <c r="O19" s="3">
+        <v>8.8749999999999996E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1629,8 +1421,8 @@
       <c r="D20" s="1">
         <v>81.866509155345497</v>
       </c>
-      <c r="E20" t="s">
-        <v>23</v>
+      <c r="E20" s="3">
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <v>48</v>
@@ -1647,8 +1439,8 @@
       <c r="J20" s="1">
         <v>82.505729564552993</v>
       </c>
-      <c r="K20" t="s">
-        <v>14</v>
+      <c r="K20" s="3">
+        <v>1</v>
       </c>
       <c r="L20" s="1">
         <v>22</v>
@@ -1656,11 +1448,11 @@
       <c r="M20" s="1">
         <v>90.393013100436605</v>
       </c>
-      <c r="N20" t="s">
-        <v>70</v>
-      </c>
-      <c r="O20" t="s">
-        <v>71</v>
+      <c r="N20" s="3">
+        <v>1.1832499999999999</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1.545E-2</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1676,8 +1468,8 @@
       <c r="D21" s="1">
         <v>86.343885785226504</v>
       </c>
-      <c r="E21" t="s">
-        <v>15</v>
+      <c r="E21" s="3">
+        <v>2</v>
       </c>
       <c r="F21" s="1">
         <v>28</v>
@@ -1694,8 +1486,8 @@
       <c r="J21" s="1">
         <v>85.758609990691895</v>
       </c>
-      <c r="K21" t="s">
-        <v>20</v>
+      <c r="K21" s="3">
+        <v>5</v>
       </c>
       <c r="L21" s="1">
         <v>20</v>
@@ -1703,11 +1495,11 @@
       <c r="M21" s="1">
         <v>95.642701525054406</v>
       </c>
-      <c r="N21" t="s">
-        <v>72</v>
-      </c>
-      <c r="O21" t="s">
-        <v>73</v>
+      <c r="N21" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+      <c r="O21" s="3">
+        <v>2.7666666666666599E-3</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1723,8 +1515,8 @@
       <c r="D22" s="1">
         <v>94.036539124439798</v>
       </c>
-      <c r="E22" t="s">
-        <v>20</v>
+      <c r="E22" s="3">
+        <v>5</v>
       </c>
       <c r="F22" s="1">
         <v>30</v>
@@ -1741,20 +1533,20 @@
       <c r="J22" s="1">
         <v>96.197241955704101</v>
       </c>
-      <c r="K22" t="s">
-        <v>24</v>
+      <c r="K22" s="3">
+        <v>10</v>
       </c>
       <c r="L22" s="1">
         <v>8</v>
       </c>
       <c r="M22" s="1">
-        <v>91.208791208791197</v>
-      </c>
-      <c r="N22" t="s">
-        <v>74</v>
-      </c>
-      <c r="O22" t="s">
-        <v>75</v>
+        <v>90.208791208791197</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0.123366666666666</v>
+      </c>
+      <c r="O22" s="3">
+        <v>7.86833333333333E-2</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1770,8 +1562,8 @@
       <c r="D23" s="1">
         <v>81.866509155345497</v>
       </c>
-      <c r="E23" t="s">
-        <v>24</v>
+      <c r="E23" s="3">
+        <v>10</v>
       </c>
       <c r="F23" s="1">
         <v>48</v>
@@ -1788,8 +1580,8 @@
       <c r="J23" s="1">
         <v>82.505729564552993</v>
       </c>
-      <c r="K23" t="s">
-        <v>24</v>
+      <c r="K23" s="3">
+        <v>10</v>
       </c>
       <c r="L23" s="1">
         <v>22</v>
@@ -1797,11 +1589,11 @@
       <c r="M23" s="1">
         <v>90.393013100436605</v>
       </c>
-      <c r="N23" t="s">
-        <v>76</v>
-      </c>
-      <c r="O23" t="s">
-        <v>77</v>
+      <c r="N23" s="3">
+        <v>0.10616666666666599</v>
+      </c>
+      <c r="O23" s="3">
+        <v>4.0666666666666603E-3</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1817,8 +1609,8 @@
       <c r="D24" s="1">
         <v>98.334010564810995</v>
       </c>
-      <c r="E24" t="s">
-        <v>25</v>
+      <c r="E24" s="3">
+        <v>17</v>
       </c>
       <c r="F24" s="1">
         <v>3</v>
@@ -1835,8 +1627,8 @@
       <c r="J24" s="1">
         <v>97.514450867052005</v>
       </c>
-      <c r="K24" t="s">
-        <v>18</v>
+      <c r="K24" s="3">
+        <v>15</v>
       </c>
       <c r="L24" s="1">
         <v>3</v>
@@ -1844,11 +1636,11 @@
       <c r="M24" s="1">
         <v>93.023255813953398</v>
       </c>
-      <c r="N24" t="s">
-        <v>78</v>
-      </c>
-      <c r="O24" t="s">
-        <v>79</v>
+      <c r="N24" s="3">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1.0233333333333299E-2</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1864,8 +1656,8 @@
       <c r="D25" s="1">
         <v>98.338368580060404</v>
       </c>
-      <c r="E25" t="s">
-        <v>26</v>
+      <c r="E25" s="3">
+        <v>19</v>
       </c>
       <c r="F25" s="1">
         <v>2</v>
@@ -1882,8 +1674,8 @@
       <c r="J25" s="1">
         <v>98.039215686274503</v>
       </c>
-      <c r="K25" t="s">
-        <v>19</v>
+      <c r="K25" s="3">
+        <v>0</v>
       </c>
       <c r="L25" s="1">
         <v>1</v>
@@ -1891,11 +1683,11 @@
       <c r="M25" s="1">
         <v>96</v>
       </c>
-      <c r="N25" t="s">
-        <v>80</v>
-      </c>
-      <c r="O25" t="s">
-        <v>81</v>
+      <c r="N25" s="3">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="O25" s="3">
+        <v>1.01E-2</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -1911,8 +1703,8 @@
       <c r="D26" s="1">
         <v>99.848714069591495</v>
       </c>
-      <c r="E26" t="s">
-        <v>27</v>
+      <c r="E26" s="3">
+        <v>26</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
@@ -1929,8 +1721,8 @@
       <c r="J26" s="1">
         <v>99.686274509803894</v>
       </c>
-      <c r="K26" t="s">
-        <v>15</v>
+      <c r="K26" s="3">
+        <v>2</v>
       </c>
       <c r="L26" s="1">
         <v>1</v>
@@ -1938,11 +1730,11 @@
       <c r="M26" s="1">
         <v>75</v>
       </c>
-      <c r="N26" t="s">
-        <v>82</v>
-      </c>
-      <c r="O26" t="s">
-        <v>83</v>
+      <c r="N26" s="3">
+        <v>1.86333333333333E-2</v>
+      </c>
+      <c r="O26" s="3">
+        <v>1.13166666666666E-2</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -1958,8 +1750,8 @@
       <c r="D27" s="1">
         <v>98.994974874371806</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
+      <c r="E27" s="3">
+        <v>1</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1976,8 +1768,8 @@
       <c r="J27" s="1">
         <v>98.429319371727701</v>
       </c>
-      <c r="K27" t="s">
-        <v>28</v>
+      <c r="K27" s="3">
+        <v>4</v>
       </c>
       <c r="L27" s="1">
         <v>1</v>
@@ -1985,11 +1777,11 @@
       <c r="M27" s="1">
         <v>66.6666666666666</v>
       </c>
-      <c r="N27" t="s">
-        <v>84</v>
-      </c>
-      <c r="O27" t="s">
-        <v>85</v>
+      <c r="N27" s="3">
+        <v>1.7833333333333299E-3</v>
+      </c>
+      <c r="O27" s="3">
+        <v>1.6833333333333301E-3</v>
       </c>
     </row>
   </sheetData>
@@ -2018,49 +1810,49 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>97</v>
+        <v>27</v>
       </c>
       <c r="P1" t="s">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
